--- a/data/ch07/webpage_data/네이버_환율_검색_결과_표_데이터.xlsx
+++ b/data/ch07/webpage_data/네이버_환율_검색_결과_표_데이터.xlsx
@@ -52,49 +52,49 @@
     <t>뉴질랜드 NZD</t>
   </si>
   <si>
-    <t>▲5.50</t>
-  </si>
-  <si>
-    <t>▲13.00</t>
-  </si>
-  <si>
-    <t>▲6.55</t>
-  </si>
-  <si>
-    <t>▲0.27</t>
-  </si>
-  <si>
-    <t>▲9.40</t>
-  </si>
-  <si>
-    <t>▼2.94</t>
-  </si>
-  <si>
-    <t>▲1.40</t>
-  </si>
-  <si>
-    <t>▼1.51</t>
-  </si>
-  <si>
-    <t>+0.46%</t>
-  </si>
-  <si>
-    <t>+1.16%</t>
-  </si>
-  <si>
-    <t>+0.47%</t>
-  </si>
-  <si>
-    <t>+0.16%</t>
-  </si>
-  <si>
-    <t>+0.62%</t>
-  </si>
-  <si>
-    <t>-0.34%</t>
-  </si>
-  <si>
-    <t>-0.19%</t>
+    <t>▲2.50</t>
+  </si>
+  <si>
+    <t>▲2.95</t>
+  </si>
+  <si>
+    <t>▲0.10</t>
+  </si>
+  <si>
+    <t>▼3.45</t>
+  </si>
+  <si>
+    <t>▼0.53</t>
+  </si>
+  <si>
+    <t>▲1.93</t>
+  </si>
+  <si>
+    <t>▲3.86</t>
+  </si>
+  <si>
+    <t>+0.21%</t>
+  </si>
+  <si>
+    <t>+0.27%</t>
+  </si>
+  <si>
+    <t>+0.18%</t>
+  </si>
+  <si>
+    <t>+0.06%</t>
+  </si>
+  <si>
+    <t>-0.23%</t>
+  </si>
+  <si>
+    <t>-0.06%</t>
+  </si>
+  <si>
+    <t>+0.22%</t>
+  </si>
+  <si>
+    <t>+0.50%</t>
   </si>
 </sst>
 </file>
@@ -477,13 +477,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1204</v>
+        <v>1175</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -491,13 +491,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1131.42</v>
+        <v>1114.64</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -505,13 +505,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1395.07</v>
+        <v>1367.52</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -519,13 +519,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>171.41</v>
+        <v>171.69</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -533,13 +533,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1533.41</v>
+        <v>1492.13</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -547,13 +547,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>851.17</v>
+        <v>826.14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -561,13 +561,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>896.4</v>
+        <v>877.78</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -575,10 +575,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>796.6900000000001</v>
+        <v>769.27</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
